--- a/Projeto2/statistics.xlsx
+++ b/Projeto2/statistics.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nuno\Desktop\PLOG\Projeto2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26519"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32400" windowHeight="19960"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,10 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>PuzzleSize</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="13">
   <si>
     <t>Min Sol</t>
   </si>
@@ -43,15 +38,61 @@
   <si>
     <t>Puzzle Number = 100</t>
   </si>
+  <si>
+    <t>Puzzle Size</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>Maximum Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puzzle Size </t>
+  </si>
+  <si>
+    <t>Minimum Time</t>
+  </si>
+  <si>
+    <t>Average Time</t>
+  </si>
+  <si>
+    <t>Average Backtracks</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,13 +115,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="19">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -97,9 +175,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -179,22 +257,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -206,27 +284,27 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2458-42FA-8CA2-AE55ED9A37FB}"/>
             </c:ext>
@@ -242,11 +320,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2043388783"/>
-        <c:axId val="2043384207"/>
+        <c:axId val="2084996392"/>
+        <c:axId val="2097456120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2043388783"/>
+        <c:axId val="2084996392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -289,7 +367,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043384207"/>
+        <c:crossAx val="2097456120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -297,7 +375,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2043384207"/>
+        <c:axId val="2097456120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -348,7 +426,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043388783"/>
+        <c:crossAx val="2084996392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -398,9 +476,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -480,22 +558,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -513,13 +591,13 @@
                   <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2599999999999998</c:v>
+                  <c:v>2.26</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.899999999999999</c:v>
+                  <c:v>19.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>865.47</c:v>
@@ -527,7 +605,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-57CE-4F78-9A92-16FDEDFC656C}"/>
             </c:ext>
@@ -543,11 +621,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="2095550639"/>
-        <c:axId val="2095555215"/>
+        <c:axId val="2095714952"/>
+        <c:axId val="2095185768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2095550639"/>
+        <c:axId val="2095714952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -590,7 +668,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095555215"/>
+        <c:crossAx val="2095185768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -598,7 +676,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2095555215"/>
+        <c:axId val="2095185768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -651,7 +729,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095550639"/>
+        <c:crossAx val="2095714952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -701,9 +779,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -784,22 +862,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -811,28 +889,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>353</c:v>
+                  <c:v>353.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20609</c:v>
+                  <c:v>20609.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B184-4C99-8EC6-8F4E92838D24}"/>
             </c:ext>
@@ -846,12 +924,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127657007"/>
-        <c:axId val="2127642447"/>
+        <c:axId val="2037918104"/>
+        <c:axId val="2037788072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127657007"/>
+        <c:axId val="2037918104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -894,7 +973,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127642447"/>
+        <c:crossAx val="2037788072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -902,7 +981,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127642447"/>
+        <c:axId val="2037788072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,7 +1032,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127657007"/>
+        <c:crossAx val="2037918104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1003,9 +1082,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1086,22 +1165,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1113,7 +1192,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.16</c:v>
@@ -1134,7 +1213,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AD31-4DC9-B058-78D50B9556B9}"/>
             </c:ext>
@@ -1148,12 +1227,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2125243583"/>
-        <c:axId val="2125244415"/>
+        <c:axId val="2096998296"/>
+        <c:axId val="2096903592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2125243583"/>
+        <c:axId val="2096998296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1196,7 +1276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125244415"/>
+        <c:crossAx val="2096903592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1204,7 +1284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125244415"/>
+        <c:axId val="2096903592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1255,7 +1335,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125243583"/>
+        <c:crossAx val="2096998296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1305,45 +1385,28 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="110"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="10"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -1369,15 +1432,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1388,22 +1442,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,28 +1469,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A8A5-4CB0-8A9D-45907BBCC784}"/>
             </c:ext>
@@ -1456,15 +1510,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1475,22 +1520,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1508,13 +1553,13 @@
                   <c:v>1.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2599999999999998</c:v>
+                  <c:v>2.26</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.27</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.899999999999999</c:v>
+                  <c:v>19.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>865.47</c:v>
@@ -1523,7 +1568,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A8A5-4CB0-8A9D-45907BBCC784}"/>
             </c:ext>
@@ -1543,15 +1588,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1562,22 +1598,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1589,117 +1625,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>353</c:v>
+                  <c:v>353.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20609</c:v>
+                  <c:v>20609.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A8A5-4CB0-8A9D-45907BBCC784}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Folha1!$I$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Back Sol</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Folha1!$J$2:$O$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Folha1!$J$6:$O$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.54</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>207.64</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13998.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-A8A5-4CB0-8A9D-45907BBCC784}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1711,12 +1660,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2122996639"/>
-        <c:axId val="2122998303"/>
+        <c:axId val="2096507432"/>
+        <c:axId val="2096498872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2122996639"/>
+        <c:axId val="2096507432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,137 +1676,65 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122998303"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="2096498872"/>
+        <c:crossesAt val="1.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2122998303"/>
+        <c:axId val="2096498872"/>
         <c:scaling>
+          <c:logBase val="3.0"/>
           <c:orientation val="minMax"/>
+          <c:max val="59049.0"/>
+          <c:min val="0.333333333333333"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="-60000000" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
+              <a:defRPr/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122996639"/>
+        <c:crossAx val="2096507432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="3.0"/>
+        <c:minorUnit val="3.0"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
       <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:bodyPr rot="0" vert="horz"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
+            <a:defRPr/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -1866,34 +1744,285 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr u="sng"/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Min Time</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Folha1!$I$2:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Puzzle Size</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$J$3:$O$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Avg Time</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Folha1!$I$2:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Puzzle Size</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$J$4:$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.26</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>865.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Max Time</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Folha1!$I$2:$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Puzzle Size</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$J$5:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>353.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20609.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2095928360"/>
+        <c:axId val="2139895000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2095928360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2139895000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2139895000"/>
+        <c:scaling>
+          <c:logBase val="3.0"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2095928360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4778,15 +4907,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>100330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4800,6 +4929,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4851,7 +5010,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -4886,7 +5045,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -5063,7 +5222,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5071,22 +5230,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I1:O6"/>
+  <dimension ref="I1:AJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:O6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="23" max="23" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="9:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="9:36">
       <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="9:36">
+      <c r="I2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="9:15" x14ac:dyDescent="0.3">
-      <c r="I2" t="s">
-        <v>0</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -5107,9 +5269,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="9:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="9:36">
       <c r="I3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -5130,9 +5292,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="9:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="9:36">
       <c r="I4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0.34</v>
@@ -5153,9 +5315,9 @@
         <v>865.47</v>
       </c>
     </row>
-    <row r="5" spans="9:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="9:36">
       <c r="I5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>6</v>
@@ -5176,9 +5338,9 @@
         <v>20609</v>
       </c>
     </row>
-    <row r="6" spans="9:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="9:36">
       <c r="I6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -5199,8 +5361,235 @@
         <v>13998.9</v>
       </c>
     </row>
+    <row r="12" spans="9:36">
+      <c r="W12" t="s">
+        <v>9</v>
+      </c>
+      <c r="X12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>8</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>10</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>12</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="9:36">
+      <c r="W13" t="s">
+        <v>10</v>
+      </c>
+      <c r="X13" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>6</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="9:36">
+      <c r="W14" t="s">
+        <v>11</v>
+      </c>
+      <c r="X14" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>1.08</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>5.27</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>865.47</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="9:36">
+      <c r="W15" t="s">
+        <v>8</v>
+      </c>
+      <c r="X15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>13</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>81</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>353</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>20609</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="9:36">
+      <c r="W16" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>7.54</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>207.64</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>13998.9</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>